--- a/iselUssSyncV2/OutputWSLorientation/20220524_1236_D50L474W30Q10.0U0.30H42.8G2_S1_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1236_D50L474W30Q10.0U0.30H42.8G2_S1_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.019319001970393088</v>
+        <v>0.0096595009851965438</v>
       </c>
       <c r="O2" s="0">
-        <v>0.57193467485566296</v>
+        <v>0.28596733742783148</v>
       </c>
       <c r="P2" s="0">
         <v>104.61471</v>
@@ -356,10 +356,10 @@
         <v>1.0262703051000002</v>
       </c>
       <c r="R2" s="0">
-        <v>1.2122259883885453</v>
+        <v>2.4244519767770907</v>
       </c>
       <c r="S2" s="0">
-        <v>0.222128196275027</v>
+        <v>1.2360890041997441</v>
       </c>
       <c r="T2" s="0">
         <v>0.025372247353849832</v>
@@ -383,16 +383,16 @@
         <v>140000</v>
       </c>
       <c r="AA2" s="0">
-        <v>0.84659982126291278</v>
+        <v>0.42329991063145639</v>
       </c>
       <c r="AB2" s="0">
-        <v>4.6201712448487555</v>
+        <v>0.83025599419874918</v>
       </c>
       <c r="AC2" s="0">
-        <v>3.9119923819990112</v>
+        <v>1.9559961909995056</v>
       </c>
       <c r="AD2" s="0">
-        <v>1.7287681814935054</v>
+        <v>0.86438409074675271</v>
       </c>
       <c r="AE2" s="0">
         <v>10</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>8.5321636268477672</v>
+        <v>2.7862521851982547</v>
       </c>
     </row>
   </sheetData>
